--- a/sla.xlsx
+++ b/sla.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,16 +388,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53923989</v>
+        <v>80656113</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>杰福爾舶樂股份有限公司(PLAZA TOKYO)</t>
+          <t>崇奕系統工程股份有限公司</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>台北市中山區中山北路二段129號6樓之2</t>
+          <t>新竹縣寶山鄉明湖五街6巷7號</t>
         </is>
       </c>
     </row>
@@ -405,17 +405,19 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>80656113</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>80656113台中</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>崇奕系統工程股份有限公司</t>
+          <t>崇奕  台積電 中科廠</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>新竹縣寶山鄉明湖五街6巷7號</t>
+          <t>中部科學園區科雅六路1號</t>
         </is>
       </c>
     </row>
@@ -425,17 +427,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>80656113台中</t>
+          <t>85CAFE001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>崇奕  台積電 中科廠</t>
+          <t>85度C-IDC機房</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>中部科學園區科雅六路1號</t>
+          <t>台北市內湖區瑞光路498號4F</t>
         </is>
       </c>
     </row>
@@ -445,17 +447,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>85CAFE001</t>
+          <t>85CAFE1030001747</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>85度C-IDC機房</t>
+          <t>85度C  南科群創店</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>台北市內湖區瑞光路498號4F</t>
+          <t>台南市新市市環西路一段3號</t>
         </is>
       </c>
     </row>
@@ -465,17 +467,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>85CAFE002</t>
+          <t>85CAFE222222</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>85度C NEC SE</t>
+          <t>85度C 測試店</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>台北市中山區南京東路二段167號8樓</t>
+          <t>台中市南屯區工業23路35號</t>
         </is>
       </c>
     </row>
@@ -485,17 +487,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>85CAFE1030001747</t>
+          <t>1907504</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>85度C  南科群創店</t>
+          <t>孔令傑</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>台南市新市市環西路一段3號</t>
+          <t>新北市板橋區小七</t>
         </is>
       </c>
     </row>
@@ -505,57 +507,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>85CAFE222222</t>
+          <t>77777</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>85度C 測試店</t>
+          <t>鋼鐵韓粉</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>台中市南屯區工業23路35號</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>hihi</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5566</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>台北市長安西路 53 巷 5 號</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>hihi</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5566</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>台北市長安西路 53 巷 5 號</t>
+          <t>雲林縣斗六夜市</t>
         </is>
       </c>
     </row>
